--- a/xls/circular_16_tri3_16.xlsx
+++ b/xls/circular_16_tri3_16.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>type w</t>
+  </si>
+  <si>
+    <t>nʷ</t>
+  </si>
+  <si>
+    <t>type φ</t>
+  </si>
+  <si>
+    <t>nᵠ</t>
+  </si>
+  <si>
+    <t>type Q</t>
+  </si>
+  <si>
+    <t>nˢ</t>
+  </si>
+  <si>
+    <t>type M</t>
+  </si>
+  <si>
+    <t>nᵐ</t>
+  </si>
+  <si>
+    <t>L₂w</t>
+  </si>
+  <si>
+    <t>L₂φ</t>
+  </si>
+  <si>
+    <t>L₂Q</t>
+  </si>
+  <si>
+    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+  </si>
+  <si>
+    <t>tri3</t>
+  </si>
+  <si>
+    <t>PiecewisePolynomial{:Linear2D}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +418,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>817</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>817</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>817</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>4608</v>
+      </c>
+      <c r="I2">
+        <v>-0.0033636161033064964</v>
+      </c>
+      <c r="J2">
+        <v>-3.13630725316504e-6</v>
+      </c>
+      <c r="K2">
+        <v>0.0017809756647780813</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/circular_16_tri3_16.xlsx
+++ b/xls/circular_16_tri3_16.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,39 +459,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>817</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>817</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>817</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>817</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>817</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F16">
+        <v>817</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="H16">
         <v>4608</v>
       </c>
-      <c r="I2">
+      <c r="I16">
         <v>-0.0033636161033064964</v>
       </c>
-      <c r="J2">
+      <c r="J16">
         <v>-3.13630725316504e-6</v>
       </c>
-      <c r="K2">
+      <c r="K16">
         <v>0.0017809756647780813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>817</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>817</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>919</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>5202</v>
+      </c>
+      <c r="I17">
+        <v>-0.003362595628014495</v>
+      </c>
+      <c r="J17">
+        <v>-2.77798179256648e-6</v>
+      </c>
+      <c r="K17">
+        <v>0.0017809727750492546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>817</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>817</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1027</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>5832</v>
+      </c>
+      <c r="I18">
+        <v>-0.0033617431877613845</v>
+      </c>
+      <c r="J18">
+        <v>-2.4778178035605293e-6</v>
+      </c>
+      <c r="K18">
+        <v>0.0017809715133531186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>817</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>817</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>1141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>6498</v>
+      </c>
+      <c r="I19">
+        <v>-0.0033610240219223483</v>
+      </c>
+      <c r="J19">
+        <v>-2.2238492660807404e-6</v>
+      </c>
+      <c r="K19">
+        <v>0.0017809705666074983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>817</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>817</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>1261</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>7200</v>
+      </c>
+      <c r="I20">
+        <v>-0.0033604114671947354</v>
+      </c>
+      <c r="J20">
+        <v>-2.007032053128799e-6</v>
+      </c>
+      <c r="K20">
+        <v>0.0017809697363105714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>817</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>817</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>1387</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>7938</v>
+      </c>
+      <c r="I21">
+        <v>-0.0033598833269686944</v>
+      </c>
+      <c r="J21">
+        <v>-1.8204382712642503e-6</v>
+      </c>
+      <c r="K21">
+        <v>0.0017809684024148063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>817</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>817</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>1519</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>8712</v>
+      </c>
+      <c r="I22">
+        <v>-0.0033594258259208596</v>
+      </c>
+      <c r="J22">
+        <v>-1.6587139382918188e-6</v>
+      </c>
+      <c r="K22">
+        <v>0.0017809672739787271</v>
       </c>
     </row>
   </sheetData>
